--- a/data/выгрузка.xlsx
+++ b/data/выгрузка.xlsx
@@ -35863,7 +35863,9 @@
       <c r="BG3" s="167" t="n">
         <v>1</v>
       </c>
-      <c r="BH3" s="166" t="n"/>
+      <c r="BH3" s="166" t="n">
+        <v>22534</v>
+      </c>
       <c r="BI3" s="167" t="n">
         <v>1</v>
       </c>
@@ -36092,7 +36094,9 @@
         <f>BF4/BF3</f>
         <v/>
       </c>
-      <c r="BH4" s="171" t="n"/>
+      <c r="BH4" s="171" t="n">
+        <v>12059</v>
+      </c>
       <c r="BI4" s="167">
         <f>BH4/BH3</f>
         <v/>
@@ -36398,7 +36402,9 @@
         <f>BF6/BF3</f>
         <v/>
       </c>
-      <c r="BH6" s="171" t="n"/>
+      <c r="BH6" s="171" t="n">
+        <v>4232</v>
+      </c>
       <c r="BI6" s="177">
         <f>BH6/BH3</f>
         <v/>
@@ -36631,7 +36637,9 @@
         <f>BF7/BF6</f>
         <v/>
       </c>
-      <c r="BH7" s="171" t="n"/>
+      <c r="BH7" s="171" t="n">
+        <v>3509</v>
+      </c>
       <c r="BI7" s="177">
         <f>BH7/BH6</f>
         <v/>
@@ -36864,7 +36872,9 @@
         <f>BF8/BF6</f>
         <v/>
       </c>
-      <c r="BH8" s="171" t="n"/>
+      <c r="BH8" s="171" t="n">
+        <v>2853</v>
+      </c>
       <c r="BI8" s="177">
         <f>BH8/BH6</f>
         <v/>
@@ -37178,7 +37188,9 @@
         <f>BF10/BF4</f>
         <v/>
       </c>
-      <c r="BH10" s="171" t="n"/>
+      <c r="BH10" s="171" t="n">
+        <v>2058</v>
+      </c>
       <c r="BI10" s="186">
         <f>BH10/BH4</f>
         <v/>
@@ -37414,7 +37426,9 @@
         <f>BF11/BF10</f>
         <v/>
       </c>
-      <c r="BH11" s="171" t="n"/>
+      <c r="BH11" s="171" t="n">
+        <v>1718</v>
+      </c>
       <c r="BI11" s="186">
         <f>BH11/BH10</f>
         <v/>
@@ -37650,7 +37664,9 @@
         <f>BF12/BF10</f>
         <v/>
       </c>
-      <c r="BH12" s="171" t="n"/>
+      <c r="BH12" s="171" t="n">
+        <v>1376</v>
+      </c>
       <c r="BI12" s="186">
         <f>BH12/BH10</f>
         <v/>
@@ -37886,7 +37902,9 @@
         <f>BF13/BF10</f>
         <v/>
       </c>
-      <c r="BH13" s="171" t="n"/>
+      <c r="BH13" s="171" t="n">
+        <v>963</v>
+      </c>
       <c r="BI13" s="189">
         <f>BH13/BH10</f>
         <v/>
@@ -38216,7 +38234,9 @@
         <f>BF15/BF4</f>
         <v/>
       </c>
-      <c r="BH15" s="176" t="n"/>
+      <c r="BH15" s="176" t="n">
+        <v>2162</v>
+      </c>
       <c r="BI15" s="167">
         <f>BH15/BH4</f>
         <v/>
@@ -38456,7 +38476,9 @@
         <f>BF16/BF15</f>
         <v/>
       </c>
-      <c r="BH16" s="176" t="n"/>
+      <c r="BH16" s="176" t="n">
+        <v>1635</v>
+      </c>
       <c r="BI16" s="167">
         <f>BH16/BH15</f>
         <v/>
@@ -38697,7 +38719,9 @@
         <f>BF17/BF15</f>
         <v/>
       </c>
-      <c r="BH17" s="176" t="n"/>
+      <c r="BH17" s="176" t="n">
+        <v>1527</v>
+      </c>
       <c r="BI17" s="167">
         <f>BH17/BH15</f>
         <v/>
@@ -38938,7 +38962,9 @@
         <f>BF18/BF15</f>
         <v/>
       </c>
-      <c r="BH18" s="176" t="n"/>
+      <c r="BH18" s="176" t="n">
+        <v>1445</v>
+      </c>
       <c r="BI18" s="211">
         <f>BH18/BH15</f>
         <v/>
@@ -39253,7 +39279,9 @@
         <f>BF20/BF4</f>
         <v/>
       </c>
-      <c r="BH20" s="171" t="n"/>
+      <c r="BH20" s="171" t="n">
+        <v>1649</v>
+      </c>
       <c r="BI20" s="167">
         <f>BH20/BH4</f>
         <v/>
@@ -39486,7 +39514,9 @@
         <f>BF21/BF20</f>
         <v/>
       </c>
-      <c r="BH21" s="171" t="n"/>
+      <c r="BH21" s="171" t="n">
+        <v>1261</v>
+      </c>
       <c r="BI21" s="167">
         <f>BH21/BH20</f>
         <v/>
@@ -39719,7 +39749,9 @@
         <f>BF22/BF20</f>
         <v/>
       </c>
-      <c r="BH22" s="171" t="n"/>
+      <c r="BH22" s="171" t="n">
+        <v>992</v>
+      </c>
       <c r="BI22" s="167">
         <f>BH22/BH20</f>
         <v/>
@@ -39952,7 +39984,9 @@
         <f>BF23/BF20</f>
         <v/>
       </c>
-      <c r="BH23" s="171" t="n"/>
+      <c r="BH23" s="171" t="n">
+        <v>771</v>
+      </c>
       <c r="BI23" s="167">
         <f>BH23/BH20</f>
         <v/>
@@ -40258,7 +40292,9 @@
         <f>BF25/BF20</f>
         <v/>
       </c>
-      <c r="BH25" s="171" t="n"/>
+      <c r="BH25" s="171" t="n">
+        <v>33</v>
+      </c>
       <c r="BI25" s="167">
         <f>BH25/BH20</f>
         <v/>
@@ -40491,7 +40527,9 @@
         <f>BF26/BF20</f>
         <v/>
       </c>
-      <c r="BH26" s="171" t="n"/>
+      <c r="BH26" s="171" t="n">
+        <v>25</v>
+      </c>
       <c r="BI26" s="167">
         <f>BH26/BH20</f>
         <v/>
@@ -40724,7 +40762,9 @@
         <f>BF27/BF20</f>
         <v/>
       </c>
-      <c r="BH27" s="171" t="n"/>
+      <c r="BH27" s="171" t="n">
+        <v>21</v>
+      </c>
       <c r="BI27" s="167">
         <f>BH27/BH20</f>
         <v/>
@@ -40870,7 +40910,9 @@
         <v>1854</v>
       </c>
       <c r="BG28" s="183" t="n"/>
-      <c r="BH28" s="182" t="n"/>
+      <c r="BH28" s="182" t="n">
+        <v>1926</v>
+      </c>
       <c r="BI28" s="183" t="n"/>
       <c r="BJ28" s="182" t="n"/>
       <c r="BK28" s="183" t="n"/>
@@ -41167,7 +41209,9 @@
         <f>BF30/BF4</f>
         <v/>
       </c>
-      <c r="BH30" s="171" t="n"/>
+      <c r="BH30" s="171" t="n">
+        <v>12292</v>
+      </c>
       <c r="BI30" s="194">
         <f>BH30/BH4</f>
         <v/>
@@ -41400,7 +41444,9 @@
         <f>BF31/BF30</f>
         <v/>
       </c>
-      <c r="BH31" s="171" t="n"/>
+      <c r="BH31" s="171" t="n">
+        <v>11849</v>
+      </c>
       <c r="BI31" s="194">
         <f>BH31/BH30</f>
         <v/>
@@ -41633,7 +41679,9 @@
         <f>BF32/BF30</f>
         <v/>
       </c>
-      <c r="BH32" s="171" t="n"/>
+      <c r="BH32" s="171" t="n">
+        <v>11334</v>
+      </c>
       <c r="BI32" s="194">
         <f>BH32/BH30</f>
         <v/>
@@ -41866,7 +41914,9 @@
         <f>BF33/BF30</f>
         <v/>
       </c>
-      <c r="BH33" s="202" t="n"/>
+      <c r="BH33" s="202" t="n">
+        <v>10532</v>
+      </c>
       <c r="BI33" s="194">
         <f>BH33/BH30</f>
         <v/>
@@ -42099,7 +42149,9 @@
         <f>BF34/BF6</f>
         <v/>
       </c>
-      <c r="BH34" s="182" t="n"/>
+      <c r="BH34" s="182" t="n">
+        <v>258</v>
+      </c>
       <c r="BI34" s="183">
         <f>BH34/BH6</f>
         <v/>
@@ -42509,7 +42561,9 @@
         <f>BF36/BF6</f>
         <v/>
       </c>
-      <c r="BH36" s="182" t="n"/>
+      <c r="BH36" s="182" t="n">
+        <v>325</v>
+      </c>
       <c r="BI36" s="183">
         <f>BH36/BH6</f>
         <v/>
@@ -42815,7 +42869,9 @@
         <f>BF38/BF4</f>
         <v/>
       </c>
-      <c r="BH38" s="171" t="n"/>
+      <c r="BH38" s="171" t="n">
+        <v>154</v>
+      </c>
       <c r="BI38" s="209">
         <f>BH38/BH4</f>
         <v/>
@@ -43048,7 +43104,9 @@
         <f>BF39/BF38</f>
         <v/>
       </c>
-      <c r="BH39" s="171" t="n"/>
+      <c r="BH39" s="171" t="n">
+        <v>89</v>
+      </c>
       <c r="BI39" s="209">
         <f>BH39/BH38</f>
         <v/>
@@ -43281,7 +43339,9 @@
         <f>BF40/BF38</f>
         <v/>
       </c>
-      <c r="BH40" s="171" t="n"/>
+      <c r="BH40" s="171" t="n">
+        <v>84</v>
+      </c>
       <c r="BI40" s="207">
         <f>BH40/BH38</f>
         <v/>
@@ -43587,7 +43647,9 @@
         <f>BF42/BF4</f>
         <v/>
       </c>
-      <c r="BH42" s="171" t="n"/>
+      <c r="BH42" s="171" t="n">
+        <v>509</v>
+      </c>
       <c r="BI42" s="167">
         <f>BH42/BH4</f>
         <v/>
@@ -43820,7 +43882,9 @@
         <f>BF43/BF42</f>
         <v/>
       </c>
-      <c r="BH43" s="171" t="n"/>
+      <c r="BH43" s="171" t="n">
+        <v>306</v>
+      </c>
       <c r="BI43" s="167">
         <f>BH43/BH42</f>
         <v/>
@@ -44053,7 +44117,9 @@
         <f>BF44/BF42</f>
         <v/>
       </c>
-      <c r="BH44" s="202" t="n"/>
+      <c r="BH44" s="202" t="n">
+        <v>291</v>
+      </c>
       <c r="BI44" s="211">
         <f>BH44/BH42</f>
         <v/>
@@ -44284,7 +44350,9 @@
         <f>BF45/(BF42+BF38)</f>
         <v/>
       </c>
-      <c r="BH45" s="215" t="n"/>
+      <c r="BH45" s="215" t="n">
+        <v>505</v>
+      </c>
       <c r="BI45" s="216">
         <f>BH45/(BH42+BH38)</f>
         <v/>
@@ -44765,7 +44833,9 @@
         <f>BF48/BF16</f>
         <v/>
       </c>
-      <c r="BH48" s="171" t="n"/>
+      <c r="BH48" s="171" t="n">
+        <v>441</v>
+      </c>
       <c r="BI48" s="167">
         <f>BH48/BH16</f>
         <v/>
@@ -44998,7 +45068,9 @@
         <f>BF49/BF48</f>
         <v/>
       </c>
-      <c r="BH49" s="171" t="n"/>
+      <c r="BH49" s="171" t="n">
+        <v>388</v>
+      </c>
       <c r="BI49" s="211">
         <f>BH49/BH48</f>
         <v/>
@@ -45304,7 +45376,9 @@
         <f>BF51/BF4</f>
         <v/>
       </c>
-      <c r="BH51" s="171" t="n"/>
+      <c r="BH51" s="171" t="n">
+        <v>95</v>
+      </c>
       <c r="BI51" s="167">
         <f>BH51/BH4</f>
         <v/>
@@ -45537,7 +45611,9 @@
         <f>BF52/BF51</f>
         <v/>
       </c>
-      <c r="BH52" s="171" t="n"/>
+      <c r="BH52" s="171" t="n">
+        <v>36</v>
+      </c>
       <c r="BI52" s="167">
         <f>BH52/BH51</f>
         <v/>
@@ -45770,7 +45846,9 @@
         <f>BF53/BF4</f>
         <v/>
       </c>
-      <c r="BH53" s="182" t="n"/>
+      <c r="BH53" s="182" t="n">
+        <v>38</v>
+      </c>
       <c r="BI53" s="183">
         <f>BH53/BH4</f>
         <v/>
@@ -46251,7 +46329,9 @@
         <f>BF56/BF3</f>
         <v/>
       </c>
-      <c r="BH56" s="235" t="n"/>
+      <c r="BH56" s="235" t="n">
+        <v>914</v>
+      </c>
       <c r="BI56" s="167">
         <f>BH56/BH3</f>
         <v/>
@@ -46484,7 +46564,9 @@
         <f>BF57/BF56</f>
         <v/>
       </c>
-      <c r="BH57" s="241" t="n"/>
+      <c r="BH57" s="241" t="n">
+        <v>644</v>
+      </c>
       <c r="BI57" s="242">
         <f>BH57/BH56</f>
         <v/>
@@ -46780,7 +46862,9 @@
         <f>BF59/BF57</f>
         <v/>
       </c>
-      <c r="BH59" s="171" t="n"/>
+      <c r="BH59" s="171" t="n">
+        <v>347</v>
+      </c>
       <c r="BI59" s="167">
         <f>BH59/BH57</f>
         <v/>
@@ -47019,7 +47103,9 @@
         <f>BF60/BF59</f>
         <v/>
       </c>
-      <c r="BH60" s="171" t="n"/>
+      <c r="BH60" s="171" t="n">
+        <v>236</v>
+      </c>
       <c r="BI60" s="167">
         <f>BH60/BH59</f>
         <v/>
@@ -47259,7 +47345,9 @@
         <f>BF61/BF59</f>
         <v/>
       </c>
-      <c r="BH61" s="171" t="n"/>
+      <c r="BH61" s="171" t="n">
+        <v>227</v>
+      </c>
       <c r="BI61" s="167">
         <f>BH61/BH59</f>
         <v/>
@@ -47499,7 +47587,9 @@
         <f>BF62/BF59</f>
         <v/>
       </c>
-      <c r="BH62" s="171" t="n"/>
+      <c r="BH62" s="171" t="n">
+        <v>213</v>
+      </c>
       <c r="BI62" s="167">
         <f>BH62/BH59</f>
         <v/>
@@ -47739,7 +47829,9 @@
         <f>BF63/BF59</f>
         <v/>
       </c>
-      <c r="BH63" s="239" t="n"/>
+      <c r="BH63" s="239" t="n">
+        <v>208</v>
+      </c>
       <c r="BI63" s="238">
         <f>BH63/BH59</f>
         <v/>
@@ -47979,7 +48071,9 @@
         <f>BF64/BF63</f>
         <v/>
       </c>
-      <c r="BH64" s="256" t="n"/>
+      <c r="BH64" s="256" t="n">
+        <v>12</v>
+      </c>
       <c r="BI64" s="257">
         <f>BH64/BH63</f>
         <v/>
@@ -48219,7 +48313,9 @@
         <f>BF65/BF64</f>
         <v/>
       </c>
-      <c r="BH65" s="206" t="n"/>
+      <c r="BH65" s="206" t="n">
+        <v>12</v>
+      </c>
       <c r="BI65" s="207">
         <f>BH65/BH64</f>
         <v/>
@@ -48361,6 +48457,9 @@
       <c r="BD67" s="244" t="n"/>
       <c r="BE67" s="286" t="n"/>
       <c r="BG67" s="244" t="n"/>
+      <c r="BH67" t="n">
+        <v>2</v>
+      </c>
       <c r="BI67" s="244" t="n"/>
       <c r="BJ67" s="286" t="n"/>
       <c r="BK67" s="286" t="n"/>
@@ -48553,6 +48652,9 @@
       <c r="BD70" s="244" t="n"/>
       <c r="BE70" s="286" t="n"/>
       <c r="BG70" s="244" t="n"/>
+      <c r="BH70" t="n">
+        <v>3</v>
+      </c>
       <c r="BI70" s="244" t="n"/>
       <c r="BK70" s="244" t="n"/>
       <c r="BN70" s="279" t="n"/>
@@ -48596,6 +48698,9 @@
       <c r="BD71" s="244" t="n"/>
       <c r="BE71" s="286" t="n"/>
       <c r="BG71" s="244" t="n"/>
+      <c r="BH71" t="n">
+        <v>3</v>
+      </c>
       <c r="BI71" s="244" t="n"/>
       <c r="BK71" s="244" t="n"/>
       <c r="BN71" s="279" t="n"/>
@@ -48639,6 +48744,9 @@
       <c r="BD72" s="244" t="n"/>
       <c r="BE72" s="286" t="n"/>
       <c r="BG72" s="244" t="n"/>
+      <c r="BH72" t="n">
+        <v>3</v>
+      </c>
       <c r="BI72" s="244" t="n"/>
       <c r="BK72" s="244" t="n"/>
       <c r="BN72" s="279" t="n"/>
@@ -48682,6 +48790,9 @@
       <c r="BD73" s="244" t="n"/>
       <c r="BE73" s="286" t="n"/>
       <c r="BG73" s="244" t="n"/>
+      <c r="BH73" t="n">
+        <v>1</v>
+      </c>
       <c r="BI73" s="244" t="n"/>
       <c r="BK73" s="244" t="n"/>
       <c r="BN73" s="279" t="n"/>
@@ -48750,7 +48861,9 @@
       <c r="BE74" s="287" t="n"/>
       <c r="BF74" s="281" t="n"/>
       <c r="BG74" s="289" t="n"/>
-      <c r="BH74" s="281" t="n"/>
+      <c r="BH74" s="281" t="n">
+        <v>1</v>
+      </c>
       <c r="BI74" s="289" t="n"/>
       <c r="BJ74" s="281" t="n"/>
       <c r="BK74" s="289" t="n"/>
